--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1423865.502559594</v>
+        <v>1468052.080936577</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>492028.9342484445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6602701.122277159</v>
+        <v>6624789.635071166</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0332470259609903</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>183.795381666496</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.757371794235646</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -902,13 +902,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>428.723479229889</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>331.484581935008</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.58216279976261</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>325.5800738246913</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>53.74650527181129</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1379,16 +1379,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>238.3929776382632</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>101.4556968337275</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>173.7040795765157</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454375</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>236.5068966114183</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800226</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430768</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>72.13424985736032</v>
+        <v>155.4300230108086</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791320422</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>39.47142524087329</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>50.29424103733284</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2239,13 +2239,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>116.0434079398619</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>120.1838601509835</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630707</v>
       </c>
     </row>
     <row r="26">
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>144.4937753855482</v>
+        <v>56.72042565247654</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>86.27769679771725</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225751</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225831</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3281,7 +3281,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112152</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>160.7884964950063</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>113.7218216744503</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561526</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3673,7 +3673,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170482</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>136.0564930766999</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3740,7 +3740,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>248.9778919109233</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.4785282930227</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>47.61404849749822</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.4289015982185</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>163.9521757218104</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>33.08339867820155</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4144,7 +4144,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>33.28996520190819</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>279.8080589982816</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6402219259112</v>
+        <v>1666.878792644083</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5381531497385</v>
+        <v>1228.736319827507</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6687723645871</v>
+        <v>792.8265350019512</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9344315632864</v>
+        <v>359.0517901602465</v>
       </c>
       <c r="F2" t="n">
-        <v>323.1074060128981</v>
+        <v>335.2247646098583</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>335.2247646098583</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.0946100530745</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.6778206802145</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>480.9325081331324</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>1046.195539050787</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>1046.195539050787</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>1046.195539050787</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1046.195539050787</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1046.195539050787</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299073</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257668</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010725</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010725</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010725</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010725</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010725</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2283.075983462162</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>2097.424082788934</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>1689.137959088587</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715073</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>445.3931045081496</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547028</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816565</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>172.7985625978181</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>87.41347286400203</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.6778206802145</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067209</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068844</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>961.5628497245389</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064684</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999976</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331697</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720497</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512705</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>1036.076032066771</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>863.5143205499961</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>697.6363277515188</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>527.8783240022561</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>351.1712699640123</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>185.57999498984</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.6778206802145</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.6778206802145</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.6778206802145</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>320.4362752513501</v>
       </c>
       <c r="L4" t="n">
-        <v>308.7021231727439</v>
+        <v>738.6461570193111</v>
       </c>
       <c r="M4" t="n">
-        <v>728.7550221176472</v>
+        <v>1198.130024200224</v>
       </c>
       <c r="N4" t="n">
-        <v>1148.807921062551</v>
+        <v>1640.388827357869</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2060.05807658365</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2283.891034010725</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010725</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.473212716097</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.473212716097</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.473212716097</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>2259.687988681515</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1972.732480551946</v>
       </c>
       <c r="W4" t="n">
-        <v>1688.971924059632</v>
+        <v>1700.706076138238</v>
       </c>
       <c r="X4" t="n">
-        <v>1443.580169393044</v>
+        <v>1455.31432147165</v>
       </c>
       <c r="Y4" t="n">
-        <v>1216.160498707152</v>
+        <v>1227.894650785758</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>977.6515424412072</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>943.5494736650346</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>911.6800928798832</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.603617826933</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>122.603617826933</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.603617826933</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>1415.517618276921</v>
       </c>
       <c r="C8" t="n">
-        <v>1620.659365270951</v>
+        <v>977.3751454603448</v>
       </c>
       <c r="D8" t="n">
-        <v>1291.790603831868</v>
+        <v>541.4653606347892</v>
       </c>
       <c r="E8" t="n">
-        <v>863.2089295691367</v>
+        <v>107.6906157930844</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1841.817188761829</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2336.308741984731</v>
+        <v>2336.308741984729</v>
       </c>
       <c r="C11" t="n">
-        <v>1898.166269168154</v>
+        <v>1898.166269168153</v>
       </c>
       <c r="D11" t="n">
-        <v>1462.256484342599</v>
+        <v>1462.256484342597</v>
       </c>
       <c r="E11" t="n">
-        <v>1028.481739500894</v>
+        <v>1028.481739500892</v>
       </c>
       <c r="F11" t="n">
-        <v>600.6143099101018</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2164785333651</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5051,40 +5051,40 @@
         <v>1366.340956092211</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2492.071939528658</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3472.251606098964</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4300.561480932361</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928798</v>
+        <v>4616.731606928796</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245815</v>
+        <v>4357.509304245813</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179641</v>
+        <v>3994.892354179639</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590675</v>
+        <v>3590.036899590673</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169986</v>
+        <v>3170.894436169984</v>
       </c>
       <c r="Y11" t="n">
-        <v>2762.608312469639</v>
+        <v>2762.608312469637</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1035.891962983371</v>
+        <v>965.4711828007306</v>
       </c>
       <c r="C13" t="n">
-        <v>863.330251466596</v>
+        <v>792.9094712839556</v>
       </c>
       <c r="D13" t="n">
-        <v>697.4522586681187</v>
+        <v>627.0314784854784</v>
       </c>
       <c r="E13" t="n">
-        <v>527.694254918856</v>
+        <v>457.2734747362156</v>
       </c>
       <c r="F13" t="n">
-        <v>350.9872008806122</v>
+        <v>280.5664206979718</v>
       </c>
       <c r="G13" t="n">
-        <v>185.3959259064399</v>
+        <v>114.9751457237994</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5227,22 +5227,22 @@
         <v>2713.395586583915</v>
       </c>
       <c r="T13" t="n">
-        <v>2537.936920345011</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U13" t="n">
-        <v>2259.503919598116</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.548411468546</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W13" t="n">
-        <v>1700.522007054838</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.13025238825</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y13" t="n">
-        <v>1227.710581702358</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2472.724095295529</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2034.581622478953</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.671837653397</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1164.897092811692</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>737.0296632209001</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
-        <v>335.631831844164</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111519</v>
@@ -5282,22 +5282,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693463</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693463</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263769</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097165</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.924657556613</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4131.307707490439</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3726.452252901473</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3307.309789480784</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2899.023665780437</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>921.2561952691946</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
         <v>96.73597668111519</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1648.605562645476</v>
+        <v>1585.886239340661</v>
       </c>
       <c r="X16" t="n">
-        <v>1403.213807978888</v>
+        <v>1340.494484674073</v>
       </c>
       <c r="Y16" t="n">
-        <v>1175.794137292997</v>
+        <v>1113.074813988182</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.22255580238</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985803</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277504</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510143</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423084</v>
+        <v>102.6776296436403</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137084</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742887</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832466</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085326</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085326</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085326</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523495</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356891</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315486</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068542</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252379</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4805.645420746447</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.423118063463</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.80616799729</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.950713408323</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987634</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287287</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126637</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493059</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958592</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228129</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389745</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051584</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137084</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818285</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480408</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>449.2053465480408</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>449.2053465480408</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>449.2053465480408</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>449.2053465480408</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>449.2053465480408</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.544773713206</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924268</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.0793854983021</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C19" t="n">
-        <v>776.5176739815271</v>
+        <v>889.8015492906969</v>
       </c>
       <c r="D19" t="n">
-        <v>610.6396811830498</v>
+        <v>723.9235564922196</v>
       </c>
       <c r="E19" t="n">
-        <v>440.8816774337871</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1746233955432</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137084</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137084</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137084</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860607</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571963</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251574</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.003789281485</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.12434285994</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2172.691342113046</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1885.735833983477</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.709429569768</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.317674903181</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y19" t="n">
-        <v>1140.898004217289</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937639</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>790.3368563937639</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
+        <v>330.8229638057297</v>
+      </c>
+      <c r="H22" t="n">
+        <v>190.9207894961043</v>
+      </c>
+      <c r="I22" t="n">
         <v>102.2608402707796</v>
-      </c>
-      <c r="H22" t="n">
-        <v>102.2608402707797</v>
-      </c>
-      <c r="I22" t="n">
-        <v>102.2608402707797</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573036</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562605</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577832</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2597.522611637232</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2351.643165215688</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2073.210164468793</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1786.254656339223</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1514.228251925515</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1268.836497258927</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1041.416826573036</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6236,16 +6236,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6418,16 +6418,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903951</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736201</v>
+        <v>926.1484743011861</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751428</v>
+        <v>760.2704815027088</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258801</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>286.0912842876363</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>120.500009313464</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.60800300514</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461862</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,16 +6710,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6862,7 +6862,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
         <v>1341.292728955479</v>
@@ -6883,7 +6883,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
         <v>2454.80183470935</v>
@@ -6914,22 +6914,22 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004226</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,25 +6938,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>949.5782250957673</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>777.0165135789921</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>611.1385207805148</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>441.3805170312521</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>264.6734629930082</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457407</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710512</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167234</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.396843814754</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7181,7 +7181,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7202,7 +7202,7 @@
         <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912873</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716168</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>473.3149733731395</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>303.5569696238767</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>126.849915585633</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7336,7 +7336,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7363,19 +7363,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538673</v>
+        <v>2336.308741984731</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640438</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873077</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.413468530524</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I41" t="n">
-        <v>100.413468530524</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834418</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2496.531034410844</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410844</v>
+        <v>3028.309292652058</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981151</v>
+        <v>4008.488959222364</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814547</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773141</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526198</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526198</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.05875148274</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U41" t="n">
-        <v>4547.836448799757</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.219498733583</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144617</v>
+        <v>3590.036899590675</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723927</v>
+        <v>3170.894436169986</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.935457023581</v>
+        <v>2762.608312469639</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218167</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584591</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050123</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.918048831966</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481276</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143115</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.413468530524</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909816</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571939</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788318</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223591</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015799</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1039.56945483278</v>
+        <v>965.4711828007306</v>
       </c>
       <c r="C43" t="n">
-        <v>867.0077433160048</v>
+        <v>792.9094712839556</v>
       </c>
       <c r="D43" t="n">
-        <v>701.1297505175276</v>
+        <v>627.0314784854783</v>
       </c>
       <c r="E43" t="n">
-        <v>531.3717467682648</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F43" t="n">
-        <v>354.664692730021</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G43" t="n">
-        <v>189.0734177558486</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558486</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I43" t="n">
-        <v>100.413468530524</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952138</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663494</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343104</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215224</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="T43" t="n">
-        <v>2471.193632011778</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U43" t="n">
-        <v>2192.760631264884</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V43" t="n">
-        <v>1905.805123135314</v>
+        <v>1902.127631285905</v>
       </c>
       <c r="W43" t="n">
-        <v>1633.778718721606</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X43" t="n">
-        <v>1388.386964055018</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y43" t="n">
-        <v>1231.388073551767</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D44" t="n">
         <v>1648.906137047132</v>
@@ -7640,10 +7640,10 @@
         <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J44" t="n">
         <v>531.9906641340331</v>
@@ -7661,37 +7661,37 @@
         <v>2441.40092234507</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R44" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.381259633333</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.542006884176</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W44" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="45">
@@ -7719,7 +7719,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I45" t="n">
         <v>122.7996498415728</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.0533615061031</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C46" t="n">
-        <v>771.491649989328</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D46" t="n">
-        <v>605.6136571908507</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E46" t="n">
-        <v>435.8556534415879</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F46" t="n">
-        <v>435.8556534415879</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G46" t="n">
-        <v>270.2643784674156</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3622041577901</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K46" t="n">
         <v>458.0741164169406</v>
@@ -7822,10 +7822,10 @@
         <v>2197.695917749241</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719582</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
         <v>2691.977765289286</v>
@@ -7837,19 +7837,19 @@
         <v>2446.098318867741</v>
       </c>
       <c r="U46" t="n">
-        <v>2167.665318120848</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V46" t="n">
-        <v>1880.709809991278</v>
+        <v>1885.030915092279</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.68340557757</v>
+        <v>1613.004510678571</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.291650910982</v>
+        <v>1367.612756011983</v>
       </c>
       <c r="Y46" t="n">
-        <v>1135.87198022509</v>
+        <v>1367.612756011983</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>570.9727585026812</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>527.3158022709968</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026812</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.3464805132013</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,22 +8140,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>33.00589917494221</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>226.0938963909848</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,7 +8708,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>370.7912003740812</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,10 +8930,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9173,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>951.4711125638073</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,16 +9407,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>866.2895820207518</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,10 +9893,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,10 +10367,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,25 +10586,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365289432</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>592.8367376838255</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,10 +11078,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>860.035541581457</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>185.1957776566211</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>184.7831561774884</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>69.71657238081355</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>268.0111327346212</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>49.73195639979761</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>197.1718905122111</v>
+        <v>113.8761173587628</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>178.3951296148185</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>48.17580493063068</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>37.46509486399981</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>139.5921776627256</v>
+        <v>227.3655273957973</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>81.78272691405286</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.592177662725</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.146865729424294</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
     </row>
     <row r="38">
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>184.7831561774876</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>6.388026562669046</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.71657238081431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>267.5985112554895</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>184.7831561774902</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>54.48338453116322</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>4.277894049992256</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>567947.4426737223</v>
+        <v>572460.1130988614</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>567947.4426737223</v>
+        <v>575430.3439083227</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>567947.4426737223</v>
+        <v>575430.3439083227</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>556846.1014794071</v>
+        <v>556846.1014794068</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>556846.1014794072</v>
+        <v>556846.1014794069</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>564703.7415327164</v>
+        <v>580345.6432799163</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>580345.6432799163</v>
+        <v>580345.6432799164</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>580345.6432799164</v>
+        <v>580345.6432799163</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>580345.6432799163</v>
+        <v>580345.6432799164</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>580345.6432799161</v>
+        <v>580345.6432799163</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>580345.6432799163</v>
+        <v>580345.6432799164</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>572488.003226607</v>
+        <v>556846.1014794071</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>556846.1014794069</v>
+        <v>556846.1014794071</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="C2" t="n">
         <v>388706.8069205461</v>
@@ -26320,13 +26320,13 @@
         <v>388706.8069205462</v>
       </c>
       <c r="E2" t="n">
-        <v>366504.8260294654</v>
+        <v>366504.8260294652</v>
       </c>
       <c r="F2" t="n">
-        <v>366504.8260294654</v>
+        <v>366504.8260294655</v>
       </c>
       <c r="G2" t="n">
-        <v>371676.5655695092</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="H2" t="n">
         <v>381971.7484995804</v>
@@ -26341,19 +26341,19 @@
         <v>381971.7484995804</v>
       </c>
       <c r="L2" t="n">
+        <v>381971.7484995804</v>
+      </c>
+      <c r="M2" t="n">
+        <v>381971.7484995804</v>
+      </c>
+      <c r="N2" t="n">
         <v>381971.7484995805</v>
       </c>
-      <c r="M2" t="n">
-        <v>381971.7484995805</v>
-      </c>
-      <c r="N2" t="n">
-        <v>381971.7484995804</v>
-      </c>
       <c r="O2" t="n">
-        <v>376800.0089595366</v>
+        <v>366504.8260294654</v>
       </c>
       <c r="P2" t="n">
-        <v>366504.8260294652</v>
+        <v>366504.8260294654</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476941</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745852</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042849637</v>
+        <v>18928.52796216466</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996418</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256755</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393286</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>158508.4222774733</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39457.78817960744</v>
+        <v>39457.78817960743</v>
       </c>
       <c r="F4" t="n">
-        <v>39457.78817960745</v>
+        <v>39457.78817960741</v>
       </c>
       <c r="G4" t="n">
-        <v>40014.57594554737</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
         <v>41122.95192991271</v>
@@ -26448,13 +26448,13 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991274</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991275</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>40566.16416397279</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="P4" t="n">
         <v>39457.78817960744</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696301</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024184</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319819</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-473.8149321994279</v>
+        <v>-29490.46282158425</v>
       </c>
       <c r="C6" t="n">
-        <v>141717.4857275105</v>
+        <v>143920.5001824254</v>
       </c>
       <c r="D6" t="n">
-        <v>141717.4857275106</v>
+        <v>175110.535119884</v>
       </c>
       <c r="E6" t="n">
-        <v>19172.673550173</v>
+        <v>91716.06180729916</v>
       </c>
       <c r="F6" t="n">
-        <v>253527.6955722104</v>
+        <v>253451.1370174137</v>
       </c>
       <c r="G6" t="n">
-        <v>250409.4337808703</v>
+        <v>244178.8056623279</v>
       </c>
       <c r="H6" t="n">
-        <v>250727.802983911</v>
+        <v>263107.3336244925</v>
       </c>
       <c r="I6" t="n">
-        <v>263130.5579638752</v>
+        <v>263107.3336244925</v>
       </c>
       <c r="J6" t="n">
-        <v>152116.092618885</v>
+        <v>113715.737198817</v>
       </c>
       <c r="K6" t="n">
-        <v>263130.5579638752</v>
+        <v>238260.3968405597</v>
       </c>
       <c r="L6" t="n">
-        <v>263130.5579638752</v>
+        <v>263107.3336244925</v>
       </c>
       <c r="M6" t="n">
-        <v>67529.37868080749</v>
+        <v>128117.3890114891</v>
       </c>
       <c r="N6" t="n">
-        <v>263130.5579638751</v>
+        <v>263107.3336244926</v>
       </c>
       <c r="O6" t="n">
-        <v>259919.6087123656</v>
+        <v>253451.1370174137</v>
       </c>
       <c r="P6" t="n">
-        <v>253527.6955722103</v>
+        <v>253451.1370174136</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026812</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267136</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631549</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026812</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517571</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319567</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760978</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026812</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517571</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026812</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517571</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319567</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760978</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3506060370078</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>231.1556571199864</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27591,13 +27591,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>272.89129894519</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0.71351816339876</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27667,10 +27667,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.71868052833509</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.5633111792702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>105.9706131526086</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>369.842250023073</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27916,10 +27916,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-5.002145490419948e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>570.9727585026812</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>527.3158022709968</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026812</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.3464805132013</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,22 +34860,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>33.00589917494221</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>226.0938963909848</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,10 +35188,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35428,10 +35428,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>370.7912003740812</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,10 +35650,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35893,10 +35893,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>951.4711125638073</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.4542274390807</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,16 +36127,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36604,7 +36604,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>866.2895820207518</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36613,10 +36613,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37087,10 +37087,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080417</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37306,28 +37306,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-6.084382722536545e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37704,10 +37704,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365289432</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>592.8367376838255</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37798,10 +37798,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38029,16 +38029,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>860.035541581457</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38190,7 +38190,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>
